--- a/data/trans_bre/P2A_senso_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Edad-trans_bre.xlsx
@@ -660,23 +660,21 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2754506573304847</v>
+        <v>-0.4251901708520409</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.25048723519297</v>
+        <v>-2.22809667377467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7435984865557769</v>
+        <v>-0.7405862637299903</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3661201459096977</v>
+        <v>-0.01058088052914905</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.7577307516773817</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -688,21 +686,19 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.036956118126991</v>
+        <v>2.075876616030802</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1905245230683965</v>
+        <v>0.2031829356303632</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4512320269233339</v>
+        <v>0.4531636501648417</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.397945630117882</v>
+        <v>5.100280372068901</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="n">
-        <v>0.8504034708514896</v>
-      </c>
+      <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -739,7 +735,7 @@
         <v>1.178456518906111</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.5637432357509378</v>
+        <v>-0.5637432357509375</v>
       </c>
     </row>
     <row r="8">
@@ -750,26 +746,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8444274381385231</v>
+        <v>-0.9106718344907697</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4007350929193038</v>
+        <v>0.3750885230756968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3932117143322377</v>
+        <v>-0.3979535682125469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.501309788293401</v>
+        <v>-4.492160601034795</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8208566539486624</v>
+        <v>-0.8356959648861407</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02591682694859327</v>
+        <v>0.125985651295856</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.8815430756688142</v>
+        <v>-0.8951041499905782</v>
       </c>
     </row>
     <row r="9">
@@ -780,26 +776,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.037297498347897</v>
+        <v>1.0178649186918</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.44067068255668</v>
+        <v>3.49876738933754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.365468239552248</v>
+        <v>1.342730950342072</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3045966919845227</v>
+        <v>0.4996861948957128</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.099436436913812</v>
+        <v>3.312411278396033</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>11.64775261959221</v>
+        <v>12.09013190904433</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>0.5575725858927745</v>
+        <v>0.6258193040707248</v>
       </c>
     </row>
     <row r="10">
@@ -846,28 +842,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.101120960556334</v>
+        <v>-1.147027178576645</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7342168699008129</v>
+        <v>-0.7807838295471764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.194119374389237</v>
+        <v>-1.095910114989022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.051421815430021</v>
+        <v>-0.8389320204382473</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7908834307567618</v>
+        <v>-0.8479363259506861</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5625251395670985</v>
+        <v>-0.536345449571114</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8416476636421037</v>
+        <v>-0.8452128993423964</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5166915691778894</v>
+        <v>-0.466639340510588</v>
       </c>
     </row>
     <row r="12">
@@ -878,28 +874,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.141936768079195</v>
+        <v>0.9902909572954595</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.912472533501873</v>
+        <v>1.964015766897865</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7500961643997314</v>
+        <v>0.8708683952223416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.753190073434409</v>
+        <v>1.634378328454466</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.995693279339459</v>
+        <v>3.220941918006749</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.896878756437537</v>
+        <v>4.036442364771135</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.335450083382042</v>
+        <v>3.242102605937093</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.989408186394118</v>
+        <v>3.508241604979531</v>
       </c>
     </row>
     <row r="13">
@@ -923,7 +919,7 @@
         <v>-1.006733516832329</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.05200587173770296</v>
+        <v>-0.05200587173770192</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6771106284928802</v>
@@ -935,7 +931,7 @@
         <v>-0.5193861920876278</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.02034015004829961</v>
+        <v>-0.02034015004829921</v>
       </c>
     </row>
     <row r="14">
@@ -946,28 +942,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7812123395774875</v>
+        <v>-0.5986656776443591</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.942286882466843</v>
+        <v>-2.048508272191238</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.674833774764568</v>
+        <v>-2.51576431886227</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.773111599955336</v>
+        <v>-1.562624250652484</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4965548910546513</v>
+        <v>-0.4579137839699466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5658917809011421</v>
+        <v>-0.5927107940275829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.87470496968226</v>
+        <v>-0.8487978677461859</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4940259887969635</v>
+        <v>-0.4503669828380775</v>
       </c>
     </row>
     <row r="15">
@@ -978,28 +974,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.442629190169723</v>
+        <v>2.375407447536546</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.770057035402447</v>
+        <v>1.933652355468036</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.207288562795079</v>
+        <v>0.2079533957858082</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.425282851269759</v>
+        <v>1.418250230377715</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.753780203727719</v>
+        <v>4.248478956063752</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.385578398136504</v>
+        <v>1.466015959273513</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3527638403218801</v>
+        <v>0.2915009371997621</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8212726566028513</v>
+        <v>0.8507258477889361</v>
       </c>
     </row>
     <row r="16">
@@ -1023,7 +1019,7 @@
         <v>-0.5373125410661022</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07870451506067633</v>
+        <v>0.07870451506067702</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.3737265004228583</v>
@@ -1035,7 +1031,7 @@
         <v>-0.4470919715763347</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0207870953861761</v>
+        <v>0.02078709538617629</v>
       </c>
     </row>
     <row r="17">
@@ -1046,28 +1042,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.021987778492478</v>
+        <v>-3.655473970007797</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.391529380861999</v>
+        <v>-1.490116444679298</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.357137119130514</v>
+        <v>-2.204933551350374</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.872709990061804</v>
+        <v>-2.011472652649144</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.783501077332498</v>
+        <v>-0.775857470602178</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5087991577531672</v>
+        <v>-0.5203592622047242</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3858764568347408</v>
+        <v>-0.4025080943160528</v>
       </c>
     </row>
     <row r="18">
@@ -1078,28 +1074,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7916359054301363</v>
+        <v>1.126753883816348</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.839601489199494</v>
+        <v>2.635843640763424</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7065671578272393</v>
+        <v>0.6447553989979825</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.102706222033649</v>
+        <v>1.929674404478731</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4721596643135805</v>
+        <v>0.6339440325018822</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.644500029713279</v>
+        <v>2.644240271634245</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.698938373012873</v>
+        <v>3.945626206643766</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7996613685522643</v>
+        <v>0.7190806525881847</v>
       </c>
     </row>
     <row r="19">
@@ -1123,7 +1119,7 @@
         <v>0.496577895476946</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.306049760122236</v>
+        <v>1.306049760122235</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.6483676825565931</v>
@@ -1135,7 +1131,7 @@
         <v>0.4574262608373324</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.3865553005503237</v>
+        <v>0.3865553005503234</v>
       </c>
     </row>
     <row r="20">
@@ -1146,28 +1142,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.877411656133102</v>
+        <v>-5.912177978105135</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.009030676886183</v>
+        <v>-1.558023396003578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.537182989971647</v>
+        <v>-1.350478032839234</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.920242581724288</v>
+        <v>-0.7454210646431355</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.893791358803484</v>
+        <v>-0.8868890083088361</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.46693334331861</v>
+        <v>-0.5778689913178222</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-1</v>
+        <v>-0.819017756582186</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1952270523745245</v>
+        <v>-0.1959945366251185</v>
       </c>
     </row>
     <row r="21">
@@ -1178,28 +1174,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.810197835194134</v>
+        <v>-0.5759262074812379</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.188704221512268</v>
+        <v>4.026694812315025</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.285559414595312</v>
+        <v>2.223067605311741</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.323382912874042</v>
+        <v>3.513133667246695</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1253818965283476</v>
+        <v>-0.0782356180454825</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.243861964957738</v>
+        <v>4.692534974912172</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>6.284407647321233</v>
+        <v>9.041072834009496</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.585254794204823</v>
+        <v>1.547546398907152</v>
       </c>
     </row>
     <row r="22">
@@ -1246,28 +1242,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.449151237574019</v>
+        <v>-1.441844477945679</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.327884819660211</v>
+        <v>-4.223316959476556</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8261878429517127</v>
+        <v>-0.7566433859836287</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.101846821367704</v>
+        <v>1.144037814582609</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4608743390830353</v>
+        <v>-0.4589425587402678</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6886996460010522</v>
+        <v>-0.6989985471256447</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4837102225432875</v>
+        <v>-0.4667418598147505</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1541697349627523</v>
+        <v>0.1846264108357146</v>
       </c>
     </row>
     <row r="24">
@@ -1278,28 +1274,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.744377505399481</v>
+        <v>5.023244865954695</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.638952239826855</v>
+        <v>1.907285472478044</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.204122695392847</v>
+        <v>4.171557918580424</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.261454797197399</v>
+        <v>6.772222000466465</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>4.725603344966565</v>
+        <v>5.458475171074581</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7273747648402572</v>
+        <v>0.9365556508275642</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>6.944058424764825</v>
+        <v>8.387324308960503</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.588083978892163</v>
+        <v>2.947088280363794</v>
       </c>
     </row>
     <row r="25">
@@ -1323,7 +1319,7 @@
         <v>0.04923872643423245</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.7384182323910169</v>
+        <v>0.7384182323910162</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07104410661191385</v>
@@ -1335,7 +1331,7 @@
         <v>0.04851195184462889</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2964229972996462</v>
+        <v>0.2964229972996459</v>
       </c>
     </row>
     <row r="26">
@@ -1346,28 +1342,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.4513283252206783</v>
+        <v>-0.4624230264872249</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.2630052867446616</v>
+        <v>-0.1899478696434681</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.463739505291284</v>
+        <v>-0.4348744778278926</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.03848559805666515</v>
+        <v>-0.1226744177080743</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2472561590144333</v>
+        <v>-0.2529513866339032</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1273298271975727</v>
+        <v>-0.09256625864397504</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3638653416422708</v>
+        <v>-0.3521521695215666</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0146009150553193</v>
+        <v>-0.04779112797860226</v>
       </c>
     </row>
     <row r="27">
@@ -1378,28 +1374,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7509208636475755</v>
+        <v>0.7225579517373297</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.174666570128533</v>
+        <v>1.218949075722497</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5846941016534832</v>
+        <v>0.5636961018744696</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.452014340155555</v>
+        <v>1.461596761024008</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6057394098469125</v>
+        <v>0.600614403553824</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8518068160194631</v>
+        <v>0.8733892452994412</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7594384307022163</v>
+        <v>0.7638186487901784</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6923980980319234</v>
+        <v>0.6805716690360866</v>
       </c>
     </row>
     <row r="28">
